--- a/ref_docs/Acronymns_v1.xlsx
+++ b/ref_docs/Acronymns_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarr\Documents\GitHub\599_team_project\ref_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9942BBB7-704B-4003-BED5-871109E14C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D8397-A6B2-495C-86F0-0B5DD2C8CADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{3FB5B942-0C4E-4787-8534-DFA1F04F65BC}"/>
+    <workbookView xWindow="5625" yWindow="1530" windowWidth="21600" windowHeight="11295" xr2:uid="{3FB5B942-0C4E-4787-8534-DFA1F04F65BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>comma separated values</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>natural language processing</t>
+  </si>
+  <si>
+    <t>Update date</t>
   </si>
 </sst>
 </file>
@@ -179,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F16B6F-5168-461C-9D6E-5EA0052C1478}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,148 +510,255 @@
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45145</v>
       </c>
     </row>
   </sheetData>
